--- a/reproducibility-package/qualitative-analysis.xlsx
+++ b/reproducibility-package/qualitative-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895847CB-9B01-46C9-8E7A-4019D3361550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA475B33-F4D3-4315-B880-4CFBB6F52AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="17" xr2:uid="{A9FB4A2D-7AFD-4C33-9177-9BDA622E3B1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9FB4A2D-7AFD-4C33-9177-9BDA622E3B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="PI 1.0 Preocupación ética" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="PI 1.1 (Análisis)" sheetId="8" r:id="rId5"/>
     <sheet name="PI 1.1 (Resumen)" sheetId="17" r:id="rId6"/>
     <sheet name="PI 2.0 Técnica persuasiva" sheetId="2" r:id="rId7"/>
-    <sheet name="PI 2.0 (Resumen)" sheetId="20" r:id="rId8"/>
-    <sheet name="PI 2.0 (Análisis)" sheetId="19" r:id="rId9"/>
+    <sheet name="PI 2.0 (Análisis)" sheetId="19" r:id="rId8"/>
+    <sheet name="PI 2.0 (Resumen)" sheetId="20" r:id="rId9"/>
     <sheet name="PI 2.1 Dominio de aplicación" sheetId="3" r:id="rId10"/>
     <sheet name="PI 2.1 (Análisis)" sheetId="11" r:id="rId11"/>
     <sheet name="PI 2.1 (Resumen)" sheetId="21" r:id="rId12"/>
@@ -31,6 +31,7 @@
     <sheet name="PI 3.1 Principio ético" sheetId="6" r:id="rId16"/>
     <sheet name="PI 3.1 (Análisis)" sheetId="15" r:id="rId17"/>
     <sheet name="PI 3.1 (Resumen)" sheetId="22" r:id="rId18"/>
+    <sheet name="Relaciones entre datos" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="924">
   <si>
     <t>Conceptos de primer orden</t>
   </si>
@@ -3457,6 +3458,60 @@
   </si>
   <si>
     <t>[EP-1, EP-3, EP-7, EP-9, EP-11, EP-17, EP-18, EP-21, EP-22]</t>
+  </si>
+  <si>
+    <t>Opciones preseleccionadas</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cita</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>“Extreme countdown” refers to UI patterns that have a timer and that execute automatically if not interrupted within the short pe riod of time. Upon showing examples of such UI features (Figure 1) on all platforms, all except 2 participants agreed that such patterns cause unintended behaviors of over-watching.  Participants pointed out how such patterns induce pressure situations, especially when present socially, to make a decision within the given time. We can say from our previous study that such patterns reduce user auton omy in making conscious decisions, especially as time increases in a video watching session.</t>
+  </si>
+  <si>
+    <t>“Bias grind” refers to UI patterns that disproportionately overload user interests and biases, and is related to Brignull’s “aesthetic manipulation.” An example of this pattern is providing an infnitely long scroll of Recommendations based on previous watching history. From our diary study, we fnd that Recommendation features enable compulsiveness, especially as the viewing time of a session increases.</t>
+  </si>
+  <si>
+    <t>Emotional distress. This type of harm includes negative emotions and psychological impacts on users — e.g., annoyance, stress, and frustration. For participants, these sneaking techniques — e.g., putting elements in the basket automatically — and attention-capture designs — like notifcations — impact that emotional distress *</t>
+  </si>
+  <si>
+    <t>[EP-4, EP-9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atentional harms. These harms push users to spend more time by directing their attention to the platform. Participants identifed attention deceptive patterns in video games, for instance, the full-screen mode that makes users lose track of time (which is a type of time fog), a notifcation to catch the participants’ attention, grind ing, and infnite scroll. </t>
+  </si>
+  <si>
+    <t>[EP-11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some most frequently used PSD strategies, such as personalisation, reduction and rewards, might deprive users of the opportunity to make independent decisions in long-term use. </t>
+  </si>
+  <si>
+    <t>[EP-17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most frequently identified persuasive design strategies were reminders, personalisation, reduction, rewards, recommendations and emotional motivators. These could have negative long-term impacts on users by prolonging their screen time, reinforcing phone-checking habits and oversimplifying decision-making. </t>
+  </si>
+  <si>
+    <t>Typically, punishers aimed to trigger sadness or fear (e.g., fear of loss of game progress) in response to not completing a task. Positive punishers consisted of things such as negative sounds (e.g., an unpleasant buzz upon making a mistake in the gameplay) or witness to negative emotions (e.g., disappointment) from a gameplay character. Negative punishers tended to involve a sense of threat that progress or collected rewards would be lost if gameplay were to cease</t>
+  </si>
+  <si>
+    <t>[EP-3, EP-22]</t>
+  </si>
+  <si>
+    <t>[EP-7, EP-9, EP-22]</t>
+  </si>
+  <si>
+    <t>[EP-11, EP-24]</t>
+  </si>
+  <si>
+    <t>[EP-9, EP-4]</t>
   </si>
 </sst>
 </file>
@@ -3687,13 +3742,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3728,9 +3786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4080,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B95B399-AF6C-472B-BE15-5BB0DADF863F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="66" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="66" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5201,7 +5256,7 @@
       <c r="C2" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5213,19 +5268,19 @@
         <v>622</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
-      <c r="H3" s="39" t="s">
+      <c r="D3" s="32"/>
+      <c r="H3" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -5237,7 +5292,7 @@
       <c r="C4" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -5247,7 +5302,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -5255,7 +5310,7 @@
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -5263,7 +5318,7 @@
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -5271,7 +5326,7 @@
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -5279,7 +5334,7 @@
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -5289,7 +5344,7 @@
         <v>617</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -5299,7 +5354,7 @@
         <v>616</v>
       </c>
       <c r="C11" s="31"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -5307,7 +5362,7 @@
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -5317,7 +5372,7 @@
         <v>298</v>
       </c>
       <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -5325,7 +5380,7 @@
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -5333,7 +5388,7 @@
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -5341,7 +5396,7 @@
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -5349,7 +5404,7 @@
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -5357,7 +5412,7 @@
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="29"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -5365,7 +5420,7 @@
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -5373,7 +5428,7 @@
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -5381,7 +5436,7 @@
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -5389,7 +5444,7 @@
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -5397,7 +5452,7 @@
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="29"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -5405,7 +5460,7 @@
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -5413,7 +5468,7 @@
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -5425,7 +5480,7 @@
       <c r="C26" s="31" t="s">
         <v>631</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -5433,7 +5488,7 @@
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -5445,7 +5500,7 @@
       <c r="C28" s="31" t="s">
         <v>637</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -5453,7 +5508,7 @@
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -5461,7 +5516,7 @@
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -5469,7 +5524,7 @@
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -5477,7 +5532,7 @@
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="29"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -5485,7 +5540,7 @@
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -5493,7 +5548,7 @@
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -5501,7 +5556,7 @@
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -5509,7 +5564,7 @@
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="29"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -5517,7 +5572,7 @@
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="29"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -5525,7 +5580,7 @@
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="29"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -5535,7 +5590,7 @@
         <v>608</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="29"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -5547,7 +5602,7 @@
       <c r="C40" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -5559,7 +5614,7 @@
       <c r="C41" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -5567,7 +5622,7 @@
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="29"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -5575,7 +5630,7 @@
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
@@ -5585,7 +5640,7 @@
         <v>633</v>
       </c>
       <c r="C44" s="31"/>
-      <c r="D44" s="29"/>
+      <c r="D44" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5638,7 +5693,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>639</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -5652,7 +5707,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="31"/>
       <c r="C3" s="9" t="s">
         <v>622</v>
@@ -5662,7 +5717,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="31" t="s">
         <v>635</v>
       </c>
@@ -5674,7 +5729,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="31"/>
       <c r="C5" s="9" t="s">
         <v>321</v>
@@ -5684,7 +5739,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="31"/>
       <c r="C6" s="9" t="s">
         <v>617</v>
@@ -5694,7 +5749,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="31"/>
       <c r="C7" s="9" t="s">
         <v>616</v>
@@ -5704,7 +5759,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="31"/>
       <c r="C8" s="9" t="s">
         <v>298</v>
@@ -5714,7 +5769,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="17" t="s">
         <v>631</v>
       </c>
@@ -5726,7 +5781,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="31" t="s">
         <v>637</v>
       </c>
@@ -5738,7 +5793,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="31"/>
       <c r="C11" s="9" t="s">
         <v>608</v>
@@ -5748,7 +5803,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="17" t="s">
         <v>632</v>
       </c>
@@ -5760,7 +5815,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="31" t="s">
         <v>638</v>
       </c>
@@ -5772,7 +5827,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="31"/>
       <c r="C14" s="9" t="s">
         <v>633</v>
@@ -6445,7 +6500,7 @@
       <c r="C2" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>666</v>
       </c>
     </row>
@@ -6455,7 +6510,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -6463,19 +6518,19 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="41"/>
-      <c r="G4" s="33" t="s">
+      <c r="D4" s="42"/>
+      <c r="G4" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6483,7 +6538,7 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -6491,7 +6546,7 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -6501,7 +6556,7 @@
         <v>657</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -6509,7 +6564,7 @@
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="41"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -6517,7 +6572,7 @@
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6525,7 +6580,7 @@
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -6537,7 +6592,7 @@
       <c r="C11" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -6547,7 +6602,7 @@
         <v>661</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -6559,7 +6614,7 @@
       <c r="C13" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -6567,7 +6622,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -6577,7 +6632,7 @@
         <v>669</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -6585,7 +6640,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -6593,7 +6648,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -6603,7 +6658,7 @@
         <v>668</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -6613,7 +6668,7 @@
         <v>673</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -6621,7 +6676,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -6631,7 +6686,7 @@
         <v>674</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -6639,7 +6694,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -6647,7 +6702,7 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -6657,7 +6712,7 @@
         <v>662</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -6665,7 +6720,7 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -6673,7 +6728,7 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -6681,7 +6736,7 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -6689,7 +6744,7 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -6697,7 +6752,7 @@
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -6705,7 +6760,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -6713,7 +6768,7 @@
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -6721,7 +6776,7 @@
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -6729,7 +6784,7 @@
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -6741,7 +6796,7 @@
       <c r="C34" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -6751,7 +6806,7 @@
         <v>640</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -6761,7 +6816,7 @@
         <v>641</v>
       </c>
       <c r="C36" s="31"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -6771,7 +6826,7 @@
         <v>664</v>
       </c>
       <c r="C37" s="31"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -6783,7 +6838,7 @@
       <c r="C38" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -6795,7 +6850,7 @@
       <c r="C39" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -6807,7 +6862,7 @@
       <c r="C40" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -6817,7 +6872,7 @@
         <v>663</v>
       </c>
       <c r="C41" s="30"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
@@ -6901,7 +6956,7 @@
       <c r="C2" s="30" t="s">
         <v>656</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>699</v>
       </c>
     </row>
@@ -6909,25 +6964,25 @@
       <c r="A3" s="10"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
@@ -6935,7 +6990,7 @@
       <c r="C7" s="31" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6943,19 +6998,19 @@
       <c r="A8" s="10"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
@@ -6987,7 +7042,7 @@
       <c r="C13" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6995,7 +7050,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
@@ -7003,7 +7058,7 @@
       <c r="C15" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>702</v>
       </c>
     </row>
@@ -7011,13 +7066,13 @@
       <c r="A16" s="10"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -7035,7 +7090,7 @@
       <c r="C19" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7043,7 +7098,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
@@ -7051,7 +7106,7 @@
       <c r="C21" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>705</v>
       </c>
     </row>
@@ -7059,19 +7114,19 @@
       <c r="A22" s="10"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
@@ -7079,7 +7134,7 @@
       <c r="C25" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7087,55 +7142,55 @@
       <c r="A26" s="10"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
@@ -7248,6 +7303,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D25:D34"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D15:D17"/>
@@ -7261,12 +7322,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="C25:C34"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D25:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7895,7 +7950,7 @@
       <c r="C2" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7905,19 +7960,19 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="41"/>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="42"/>
+      <c r="G3" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -7925,7 +7980,7 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7933,7 +7988,7 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7941,7 +7996,7 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -7949,7 +8004,7 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -7957,7 +8012,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="41"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -7965,7 +8020,7 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -7973,7 +8028,7 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -7983,7 +8038,7 @@
         <v>823</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -7991,7 +8046,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -8001,7 +8056,7 @@
         <v>815</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -8009,7 +8064,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -8019,7 +8074,7 @@
         <v>813</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -8027,7 +8082,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8037,7 +8092,7 @@
         <v>669</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -8045,7 +8100,7 @@
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -8053,7 +8108,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -8063,7 +8118,7 @@
         <v>810</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -8073,7 +8128,7 @@
         <v>668</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -8082,18 +8137,18 @@
       <c r="B22" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>649</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -8102,32 +8157,32 @@
       <c r="B24" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>650</v>
       </c>
       <c r="B26" s="30"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>353</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -8136,80 +8191,80 @@
       <c r="B28" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>642</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B30" s="30"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>644</v>
       </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>636</v>
       </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>645</v>
       </c>
       <c r="B33" s="30"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B34" s="30"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B35" s="30"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>651</v>
       </c>
       <c r="B36" s="30"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B37" s="30"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -8221,7 +8276,7 @@
       <c r="C38" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -8233,7 +8288,7 @@
       <c r="C39" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -8245,7 +8300,7 @@
       <c r="C40" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -8255,7 +8310,7 @@
         <v>665</v>
       </c>
       <c r="C41" s="30"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -8265,7 +8320,7 @@
         <v>663</v>
       </c>
       <c r="C42" s="30"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
@@ -8312,8 +8367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E16E6-2D6A-4790-ACD3-2804FAA5EAFD}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8339,7 +8394,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>655</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -8353,7 +8408,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="30"/>
       <c r="C3" s="11" t="s">
         <v>823</v>
@@ -8363,7 +8418,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>815</v>
@@ -8373,7 +8428,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30"/>
       <c r="C5" s="11" t="s">
         <v>813</v>
@@ -8383,7 +8438,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
         <v>669</v>
@@ -8393,7 +8448,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="30"/>
       <c r="C7" s="11" t="s">
         <v>810</v>
@@ -8403,7 +8458,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>668</v>
@@ -8413,7 +8468,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="31" t="s">
         <v>187</v>
       </c>
@@ -8425,7 +8480,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>674</v>
@@ -8435,7 +8490,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="31"/>
       <c r="C11" s="11" t="s">
         <v>662</v>
@@ -8445,7 +8500,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>889</v>
       </c>
@@ -8457,7 +8512,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11" t="s">
         <v>429</v>
       </c>
@@ -8469,7 +8524,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="30" t="s">
         <v>654</v>
       </c>
@@ -8481,7 +8536,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="30"/>
       <c r="C15" s="28" t="s">
         <v>665</v>
@@ -8491,7 +8546,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="30"/>
       <c r="C16" s="28" t="s">
         <v>663</v>
@@ -8507,6 +8562,766 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A16"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A9318-37B5-4887-887E-A95A630C9DB5}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8551,7 +9366,7 @@
       <c r="C2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8561,7 +9376,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -8569,7 +9384,7 @@
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -8579,7 +9394,7 @@
         <v>190</v>
       </c>
       <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -8587,7 +9402,7 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -8599,7 +9414,7 @@
       <c r="C7" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -8609,7 +9424,7 @@
         <v>536</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8621,7 +9436,7 @@
       <c r="C9" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -8629,7 +9444,7 @@
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -8639,7 +9454,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -8651,7 +9466,7 @@
       <c r="C12" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -8659,7 +9474,7 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -8667,7 +9482,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -8675,7 +9490,7 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -8683,7 +9498,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8691,7 +9506,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -8703,7 +9518,7 @@
       <c r="C18" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -8711,7 +9526,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -8719,7 +9534,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -8729,7 +9544,7 @@
         <v>538</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -8737,7 +9552,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -8749,7 +9564,7 @@
       <c r="C23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -8757,7 +9572,7 @@
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -8765,7 +9580,7 @@
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -8773,7 +9588,7 @@
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="29"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -8781,7 +9596,7 @@
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -8789,7 +9604,7 @@
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -8797,7 +9612,7 @@
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -8807,7 +9622,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -8815,7 +9630,7 @@
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -8827,7 +9642,7 @@
       <c r="C32" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -8835,7 +9650,7 @@
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -8845,7 +9660,7 @@
         <v>169</v>
       </c>
       <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -8855,7 +9670,7 @@
         <v>171</v>
       </c>
       <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -8863,7 +9678,7 @@
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="29"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -8871,10 +9686,14 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="29"/>
+      <c r="D37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D2:D37"/>
@@ -8889,10 +9708,6 @@
     <mergeCell ref="C23:C31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8929,7 +9744,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -8938,52 +9753,52 @@
       <c r="C2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="30" t="s">
         <v>811</v>
       </c>
@@ -8995,7 +9810,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
         <v>536</v>
@@ -9005,31 +9820,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="30" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>89</v>
@@ -9039,31 +9854,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="31" t="s">
         <v>168</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="31"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="31"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="31"/>
       <c r="C18" s="30"/>
       <c r="D18" s="14" t="s">
@@ -9071,129 +9886,129 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="30" t="s">
         <v>185</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="33" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="33" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>169</v>
@@ -9203,26 +10018,26 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="31"/>
       <c r="C36" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="33" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="31"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="31"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10002,7 +10817,7 @@
       <c r="C2" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>580</v>
       </c>
     </row>
@@ -10014,19 +10829,19 @@
         <v>545</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="35"/>
-      <c r="I3" s="33" t="s">
+      <c r="D3" s="36"/>
+      <c r="I3" s="34" t="s">
         <v>890</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -10038,7 +10853,7 @@
       <c r="C4" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -10046,7 +10861,7 @@
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -10058,7 +10873,7 @@
       <c r="C6" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10068,7 +10883,7 @@
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -10076,7 +10891,7 @@
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -10086,7 +10901,7 @@
         <v>562</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -10094,7 +10909,7 @@
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -10102,7 +10917,7 @@
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -10110,7 +10925,7 @@
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -10118,7 +10933,7 @@
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -10128,7 +10943,7 @@
         <v>587</v>
       </c>
       <c r="C14" s="31"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -10136,7 +10951,7 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -10144,7 +10959,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -10152,7 +10967,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="36"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -10160,7 +10975,7 @@
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -10168,7 +10983,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -10176,7 +10991,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -10184,7 +10999,7 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -10194,7 +11009,7 @@
         <v>586</v>
       </c>
       <c r="C22" s="31"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -10202,7 +11017,7 @@
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -10214,7 +11029,7 @@
       <c r="C24" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -10222,7 +11037,7 @@
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -10230,7 +11045,7 @@
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -10238,7 +11053,7 @@
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -10246,7 +11061,7 @@
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -10254,7 +11069,7 @@
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="36"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -10262,7 +11077,7 @@
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="36"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -10270,7 +11085,7 @@
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="36"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -10278,7 +11093,7 @@
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -10286,7 +11101,7 @@
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -10294,7 +11109,7 @@
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -10302,7 +11117,7 @@
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
@@ -10310,7 +11125,7 @@
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -10318,7 +11133,7 @@
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -10328,7 +11143,7 @@
         <v>573</v>
       </c>
       <c r="C38" s="31"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -10338,7 +11153,7 @@
         <v>564</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -10346,7 +11161,7 @@
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -10354,7 +11169,7 @@
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -10366,7 +11181,7 @@
       <c r="C42" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -10376,7 +11191,7 @@
         <v>588</v>
       </c>
       <c r="C43" s="31"/>
-      <c r="D43" s="36"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
@@ -10384,7 +11199,7 @@
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="36"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -10396,7 +11211,7 @@
       <c r="C45" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
@@ -10404,7 +11219,7 @@
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="36"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
@@ -10412,7 +11227,7 @@
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="36"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -10424,7 +11239,7 @@
       <c r="C48" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="D48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -10432,7 +11247,7 @@
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
@@ -10440,7 +11255,7 @@
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
@@ -10448,7 +11263,7 @@
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
@@ -10456,7 +11271,7 @@
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="36"/>
+      <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -10464,7 +11279,7 @@
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="36"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -10472,7 +11287,7 @@
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="36"/>
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
@@ -10484,7 +11299,7 @@
       <c r="C55" s="31" t="s">
         <v>574</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -10492,7 +11307,7 @@
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="36"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
@@ -10500,7 +11315,7 @@
       </c>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="36"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
@@ -10508,7 +11323,7 @@
       </c>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="36"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -10516,7 +11331,7 @@
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="36"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
@@ -10524,7 +11339,7 @@
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="37"/>
     </row>
     <row r="74" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10619,7 +11434,7 @@
       <c r="C4" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>691</v>
       </c>
     </row>
@@ -10627,7 +11442,7 @@
       <c r="A5" s="21"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -10639,7 +11454,7 @@
       <c r="C6" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10647,13 +11462,13 @@
       <c r="A7" s="19"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
@@ -10661,7 +11476,7 @@
       <c r="C9" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>799</v>
       </c>
     </row>
@@ -10669,25 +11484,25 @@
       <c r="A10" s="19"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
@@ -10695,7 +11510,7 @@
       <c r="C14" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>693</v>
       </c>
     </row>
@@ -10703,43 +11518,43 @@
       <c r="A15" s="19"/>
       <c r="B15" s="31"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="31"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="31"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="31"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="31"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="31"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="31"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
@@ -10747,7 +11562,7 @@
       <c r="C22" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="33" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10755,7 +11570,7 @@
       <c r="A23" s="19"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
@@ -10765,7 +11580,7 @@
       <c r="C24" s="31" t="s">
         <v>542</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="33" t="s">
         <v>905</v>
       </c>
     </row>
@@ -10773,79 +11588,79 @@
       <c r="A25" s="19"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
@@ -10863,7 +11678,7 @@
       <c r="C39" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="33" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10871,13 +11686,13 @@
       <c r="A40" s="19"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
@@ -10915,7 +11730,7 @@
       <c r="C45" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="33" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10923,13 +11738,13 @@
       <c r="A46" s="19"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
@@ -10939,7 +11754,7 @@
       <c r="C48" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="33" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10947,37 +11762,37 @@
       <c r="A49" s="19"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+      <c r="D51" s="33"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
@@ -10987,7 +11802,7 @@
       <c r="C55" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="33" t="s">
         <v>698</v>
       </c>
     </row>
@@ -10995,31 +11810,31 @@
       <c r="A56" s="19"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+      <c r="D59" s="33"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="74" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12460,7 +13275,7 @@
       <c r="C99" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="29" t="s">
         <v>904</v>
       </c>
     </row>
@@ -12513,11 +13328,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8C6D67-3E62-483D-A9F3-6388E621504B}">
+  <dimension ref="A1:Q129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="H3" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="39"/>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="39"/>
+    </row>
+    <row r="46" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="39"/>
+    </row>
+    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="39"/>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="39"/>
+    </row>
+    <row r="49" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="39"/>
+    </row>
+    <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="39"/>
+    </row>
+    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="39"/>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="39"/>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="39"/>
+    </row>
+    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="39"/>
+    </row>
+    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="39"/>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="39"/>
+    </row>
+    <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="39"/>
+    </row>
+    <row r="62" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="39"/>
+    </row>
+    <row r="63" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="39"/>
+    </row>
+    <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="39"/>
+    </row>
+    <row r="67" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="39"/>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="D68" s="39"/>
+    </row>
+    <row r="69" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="39"/>
+    </row>
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="39"/>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="39"/>
+    </row>
+    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="39"/>
+    </row>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="39"/>
+    </row>
+    <row r="74" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="39"/>
+    </row>
+    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="39"/>
+    </row>
+    <row r="77" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="39"/>
+    </row>
+    <row r="78" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="39"/>
+    </row>
+    <row r="79" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="39"/>
+    </row>
+    <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="39"/>
+    </row>
+    <row r="81" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" s="39"/>
+    </row>
+    <row r="82" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="39"/>
+    </row>
+    <row r="83" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="39"/>
+    </row>
+    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="39"/>
+    </row>
+    <row r="85" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="39"/>
+    </row>
+    <row r="86" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="C86" s="31"/>
+      <c r="D86" s="39"/>
+    </row>
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="39"/>
+    </row>
+    <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="39"/>
+    </row>
+    <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="39"/>
+    </row>
+    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="39"/>
+    </row>
+    <row r="91" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="39"/>
+    </row>
+    <row r="92" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="39"/>
+    </row>
+    <row r="93" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="39"/>
+    </row>
+    <row r="94" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="39"/>
+    </row>
+    <row r="95" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="D95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="39"/>
+    </row>
+    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="39"/>
+    </row>
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="39"/>
+    </row>
+    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C99" s="31"/>
+      <c r="D99" s="39"/>
+    </row>
+    <row r="100" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="39"/>
+    </row>
+    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="39"/>
+    </row>
+    <row r="102" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="D102" s="39"/>
+    </row>
+    <row r="103" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="39"/>
+    </row>
+    <row r="104" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="D104" s="39"/>
+    </row>
+    <row r="105" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="39"/>
+    </row>
+    <row r="106" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="37"/>
+    </row>
+    <row r="108" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="C109" s="31"/>
+      <c r="D109" s="37"/>
+    </row>
+    <row r="110" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="37"/>
+    </row>
+    <row r="111" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="37"/>
+    </row>
+    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="37"/>
+    </row>
+    <row r="114" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C114" s="31"/>
+      <c r="D114" s="37"/>
+    </row>
+    <row r="115" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C115" s="31"/>
+      <c r="D115" s="37"/>
+    </row>
+    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="37"/>
+    </row>
+    <row r="117" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C117" s="31"/>
+      <c r="D117" s="37"/>
+    </row>
+    <row r="118" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="D118" s="37"/>
+    </row>
+    <row r="119" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="37"/>
+    </row>
+    <row r="120" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="37"/>
+    </row>
+    <row r="121" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="37"/>
+    </row>
+    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="37"/>
+    </row>
+    <row r="123" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="37"/>
+    </row>
+    <row r="124" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="31"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C81:C94"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="D43:D105"/>
+    <mergeCell ref="D2:D42"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="D106:D123"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="C68:C80"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C43:C67"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="C118:C123"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C8FAC3-5978-48E8-8497-B78D1621E6FD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView topLeftCell="B68" zoomScale="78" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView topLeftCell="A43" zoomScale="78" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12552,15 +14560,15 @@
       <c r="C2" s="31" t="s">
         <v>725</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
@@ -12568,7 +14576,7 @@
       <c r="C4" s="31" t="s">
         <v>726</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>788</v>
       </c>
     </row>
@@ -12576,7 +14584,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
@@ -12584,7 +14592,7 @@
       <c r="C6" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>825</v>
       </c>
     </row>
@@ -12592,19 +14600,19 @@
       <c r="A7" s="18"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
@@ -12624,7 +14632,7 @@
       <c r="C11" s="31" t="s">
         <v>727</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>898</v>
       </c>
     </row>
@@ -12632,37 +14640,37 @@
       <c r="A12" s="18"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
@@ -12694,7 +14702,7 @@
       <c r="C20" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>817</v>
       </c>
     </row>
@@ -12702,43 +14710,43 @@
       <c r="A21" s="18"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
@@ -12746,7 +14754,7 @@
       <c r="C28" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="33" t="s">
         <v>789</v>
       </c>
     </row>
@@ -12754,19 +14762,19 @@
       <c r="A29" s="18"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
@@ -12776,7 +14784,7 @@
       <c r="C32" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="33" t="s">
         <v>900</v>
       </c>
     </row>
@@ -12784,43 +14792,43 @@
       <c r="A33" s="18"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
@@ -12842,7 +14850,7 @@
       <c r="C41" s="30" t="s">
         <v>762</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="33" t="s">
         <v>902</v>
       </c>
     </row>
@@ -12850,55 +14858,55 @@
       <c r="A42" s="19"/>
       <c r="B42" s="31"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="32"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="31"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="32"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="32"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="32"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
@@ -12906,7 +14914,7 @@
       <c r="C51" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="33" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12914,37 +14922,37 @@
       <c r="A52" s="19"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
@@ -12952,7 +14960,7 @@
       <c r="C58" s="31" t="s">
         <v>708</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="33" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12960,25 +14968,25 @@
       <c r="A59" s="19"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+      <c r="D59" s="33"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+      <c r="D61" s="33"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="D62" s="33"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
@@ -12986,7 +14994,7 @@
       <c r="C63" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="33" t="s">
         <v>792</v>
       </c>
     </row>
@@ -12994,7 +15002,7 @@
       <c r="A64" s="19"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
@@ -13014,7 +15022,7 @@
       <c r="C66" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>794</v>
       </c>
     </row>
@@ -13022,67 +15030,67 @@
       <c r="A67" s="19"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+      <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
@@ -13092,7 +15100,7 @@
       <c r="C78" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="33" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13100,19 +15108,19 @@
       <c r="A79" s="19"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
@@ -13120,7 +15128,7 @@
       <c r="C82" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="33" t="s">
         <v>795</v>
       </c>
     </row>
@@ -13128,13 +15136,13 @@
       <c r="A83" s="19"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+      <c r="D84" s="33"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
@@ -13142,7 +15150,7 @@
       <c r="C85" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="33" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13150,13 +15158,13 @@
       <c r="A86" s="19"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
@@ -13164,7 +15172,7 @@
       <c r="C88" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="33" t="s">
         <v>797</v>
       </c>
     </row>
@@ -13172,13 +15180,13 @@
       <c r="A89" s="19"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
+      <c r="D89" s="33"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
@@ -13188,7 +15196,7 @@
       <c r="C91" s="30" t="s">
         <v>755</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="33" t="s">
         <v>798</v>
       </c>
     </row>
@@ -13196,19 +15204,19 @@
       <c r="A92" s="19"/>
       <c r="B92" s="31"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="32"/>
+      <c r="D92" s="33"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="31"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="32"/>
+      <c r="D93" s="33"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="31"/>
       <c r="C94" s="30"/>
-      <c r="D94" s="32"/>
+      <c r="D94" s="33"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
@@ -13216,7 +15224,7 @@
       <c r="C95" s="30" t="s">
         <v>753</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="33" t="s">
         <v>799</v>
       </c>
     </row>
@@ -13224,13 +15232,13 @@
       <c r="A96" s="19"/>
       <c r="B96" s="31"/>
       <c r="C96" s="30"/>
-      <c r="D96" s="32"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="31"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="32"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
@@ -13240,7 +15248,7 @@
       <c r="C98" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="33" t="s">
         <v>800</v>
       </c>
     </row>
@@ -13248,7 +15256,7 @@
       <c r="A99" s="19"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
@@ -13256,7 +15264,7 @@
       <c r="C100" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="33" t="s">
         <v>895</v>
       </c>
     </row>
@@ -13264,7 +15272,7 @@
       <c r="A101" s="19"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
+      <c r="D101" s="33"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
@@ -13276,7 +15284,7 @@
       <c r="C102" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="33" t="s">
         <v>694</v>
       </c>
     </row>
@@ -13284,13 +15292,13 @@
       <c r="A103" s="20"/>
       <c r="B103" s="31"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="32"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="31"/>
       <c r="C104" s="30"/>
-      <c r="D104" s="32"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
@@ -13298,7 +15306,7 @@
       <c r="C105" s="31" t="s">
         <v>824</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="33" t="s">
         <v>901</v>
       </c>
     </row>
@@ -13306,25 +15314,25 @@
       <c r="A106" s="20"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
-      <c r="D106" s="32"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="32"/>
+      <c r="D108" s="33"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
-      <c r="D109" s="32"/>
+      <c r="D109" s="33"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
@@ -13370,7 +15378,7 @@
       <c r="C114" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="33" t="s">
         <v>801</v>
       </c>
     </row>
@@ -13378,31 +15386,31 @@
       <c r="A115" s="20"/>
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="D115" s="33"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
+      <c r="D116" s="33"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
+      <c r="D118" s="33"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="20"/>
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
@@ -13507,1191 +15515,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8C6D67-3E62-483D-A9F3-6388E621504B}">
-  <dimension ref="A1:Q128"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="66.109375" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
-      <c r="H3" s="33" t="s">
-        <v>891</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-    </row>
-    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:17" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:17" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="38"/>
-    </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="38"/>
-    </row>
-    <row r="46" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="38"/>
-    </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="38"/>
-    </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="38"/>
-    </row>
-    <row r="49" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="38"/>
-    </row>
-    <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="38"/>
-    </row>
-    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="38"/>
-    </row>
-    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="38"/>
-    </row>
-    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="38"/>
-    </row>
-    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="38"/>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="38"/>
-    </row>
-    <row r="56" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="38"/>
-    </row>
-    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="38"/>
-    </row>
-    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="38"/>
-    </row>
-    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="38"/>
-    </row>
-    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="38"/>
-    </row>
-    <row r="61" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="38"/>
-    </row>
-    <row r="63" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="38"/>
-    </row>
-    <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="38"/>
-    </row>
-    <row r="65" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="38"/>
-    </row>
-    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="38"/>
-    </row>
-    <row r="67" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="38"/>
-    </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="D68" s="38"/>
-    </row>
-    <row r="69" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="38"/>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="38"/>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="38"/>
-    </row>
-    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="38"/>
-    </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="38"/>
-    </row>
-    <row r="74" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="38"/>
-    </row>
-    <row r="75" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="38"/>
-    </row>
-    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="38"/>
-    </row>
-    <row r="77" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="38"/>
-    </row>
-    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="38"/>
-    </row>
-    <row r="79" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="38"/>
-    </row>
-    <row r="80" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>745</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>743</v>
-      </c>
-      <c r="D80" s="38"/>
-    </row>
-    <row r="81" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="38"/>
-    </row>
-    <row r="82" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="38"/>
-    </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="38"/>
-    </row>
-    <row r="84" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="38"/>
-    </row>
-    <row r="85" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>746</v>
-      </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="38"/>
-    </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="38"/>
-    </row>
-    <row r="87" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="38"/>
-    </row>
-    <row r="88" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="38"/>
-    </row>
-    <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="38"/>
-    </row>
-    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="38"/>
-    </row>
-    <row r="91" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="38"/>
-    </row>
-    <row r="92" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="38"/>
-    </row>
-    <row r="93" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="38"/>
-    </row>
-    <row r="94" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="D94" s="38"/>
-    </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="38"/>
-    </row>
-    <row r="96" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="38"/>
-    </row>
-    <row r="97" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="38"/>
-    </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="38"/>
-    </row>
-    <row r="99" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="38"/>
-    </row>
-    <row r="100" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="38"/>
-    </row>
-    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="D101" s="38"/>
-    </row>
-    <row r="102" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="38"/>
-    </row>
-    <row r="103" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>757</v>
-      </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="38"/>
-    </row>
-    <row r="104" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="38"/>
-    </row>
-    <row r="105" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="36"/>
-    </row>
-    <row r="107" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="36"/>
-    </row>
-    <row r="108" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="36"/>
-    </row>
-    <row r="109" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="36"/>
-    </row>
-    <row r="110" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="36"/>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="36"/>
-    </row>
-    <row r="112" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="36"/>
-    </row>
-    <row r="113" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="36"/>
-    </row>
-    <row r="114" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="36"/>
-    </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="36"/>
-    </row>
-    <row r="116" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="36"/>
-    </row>
-    <row r="117" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="D117" s="36"/>
-    </row>
-    <row r="118" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="36"/>
-    </row>
-    <row r="119" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="36"/>
-    </row>
-    <row r="120" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="36"/>
-    </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="36"/>
-    </row>
-    <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="36"/>
-    </row>
-    <row r="123" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="31"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C80:C93"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D43:D104"/>
-    <mergeCell ref="D2:D42"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="D105:D122"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C105:C116"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="B68:B79"/>
-    <mergeCell ref="C68:C79"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C43:C67"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>